--- a/test/numbers.xlsx
+++ b/test/numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valery/Projects/xlsx-stream-reader-es6/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16861823-7CE1-664B-BEAB-706927A2ACCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC2813C-A2C8-2F42-AC9E-696A27BA1E49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21800" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="9420" windowWidth="21800" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>number</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>zeros</t>
+  </si>
+  <si>
+    <t>ones</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -82,11 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,28 +411,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IO1"/>
+  <dimension ref="A1:IQ2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="249" width="8.83203125" style="1" customWidth="1"/>
-    <col min="250" max="1017" width="8.83203125" customWidth="1"/>
-    <col min="1018" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="251" width="8.83203125" style="1" customWidth="1"/>
+    <col min="252" max="1019" width="8.83203125" customWidth="1"/>
+    <col min="1020" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="C1" s="4">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
